--- a/document/protocol.xlsx
+++ b/document/protocol.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김동현\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3852"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
   </bookViews>
   <sheets>
     <sheet name="Requests" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="85">
   <si>
     <t>인증</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,12 +149,6 @@
   </si>
   <si>
     <t xml:space="preserve">
-name: String
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
 X
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -254,6 +248,163 @@
 id: String,
 password: String
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result: Boolean,
+error: { reason: String }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result: Boolean
+error: { reason: String }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room.list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+name: String
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game.move</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dircetion: Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+result: Boolean,
+error: { reason: String }
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동기화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game.sync</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x: Integer,
+y: Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+x: 현재 X좌표,
+y: 현재 Y좌표
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game.jump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>direction: 방향
+(-1: 좌, 0: 중립, 1: 우)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부가 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방향키를 누르거나 때는 순간,
+현재 이동 방향을 전송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1초에 한번씩 전송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프 키를 누를 때 전송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인하고자 하는 계정이
+접속 중일 경우 에러 발생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록하려는 아이디가
+중복된 경우 에러 발생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방 이름이 중복될 
+경우 에러 발생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+result: Boolean,
+room: [{ length: Integer }],
+error: { reason: String }
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방이 존재하지 않거나
+정원 초과 시 에러 발생</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -329,8 +480,36 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -605,21 +784,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="20.69921875" style="1"/>
+    <col min="1" max="4" width="20.69921875" style="1"/>
+    <col min="5" max="5" width="20.69921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.69921875" style="1"/>
+    <col min="7" max="7" width="30.69921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.69921875" style="1"/>
+    <col min="9" max="9" width="30.69921875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="20.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -633,21 +818,24 @@
         <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -659,21 +847,24 @@
         <v>6</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="87" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="87" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>0</v>
@@ -688,18 +879,21 @@
         <v>9</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="52.2" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
@@ -714,18 +908,18 @@
         <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>15</v>
@@ -740,91 +934,210 @@
         <v>27</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="87" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="52.2" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>41</v>
+      <c r="G10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/document/protocol.xlsx
+++ b/document/protocol.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\배용호\Documents\GitHub\pork-and-fork\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Requests" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -395,23 +395,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>방이 존재하지 않거나
+정원 초과 시 에러 발생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">
 result: Boolean,
-room: [{ length: Integer }],
+rooms: [{ length: Integer }],
 error: { reason: String }
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방이 존재하지 않거나
-정원 초과 시 에러 발생</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -787,7 +787,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -966,7 +966,7 @@
         <v>47</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>38</v>
@@ -998,7 +998,7 @@
         <v>38</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="52.2" x14ac:dyDescent="0.4">

--- a/document/protocol.xlsx
+++ b/document/protocol.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\programming\golang\projects\pig-pop\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\배용호\Documents\GitHub\pork-and-fork\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -355,7 +355,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -952,7 +952,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
